--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzutung\SystexDocument\ExcelTester\ExcelTester\bin\Debug\net8.0-windows\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SystexProject\05_台汽電綠能帳單管理系統\04_匯入範本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4E0F3-9390-421E-8016-BE32D01E6B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF9161-42CB-4AD3-9EBC-CF745625C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="2748" windowWidth="9894" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,27 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -36,13 +49,13 @@
     <t>付款通知單編號：</t>
   </si>
   <si>
-    <t>47054848-1b09-471c-9ef5-04b4ffad2763</t>
+    <t>1c470748-0706-431d-a4ab-d17ef382f2d9</t>
   </si>
   <si>
     <t>計費期間：</t>
   </si>
   <si>
-    <t>2020/10/01~2020/10/31</t>
+    <t>2024/07/01~2024/07/31</t>
   </si>
   <si>
     <t>製發日期：</t>
@@ -54,7 +67,7 @@
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Kuhlman - Davis</t>
+    <t>Ledner, Purdy and Haag</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
@@ -75,7 +88,7 @@
     <t>電話</t>
   </si>
   <si>
-    <t>付款期限：2025/11/18</t>
+    <t>付款期限：2025/05/25</t>
   </si>
   <si>
     <t>項次</t>
@@ -99,121 +112,40 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Rustic Soft Bike</t>
+    <t>Awesome Plastic Car</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Dolor ut dolore ullam veritatis earum fugit et doloremque est.</t>
+  </si>
+  <si>
+    <t>Practical Granite Pizza</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Delectus rerum ipsam quia.</t>
+  </si>
+  <si>
+    <t>Small Metal Pants</t>
   </si>
   <si>
     <t>Fresh</t>
   </si>
   <si>
-    <t>Aspernatur et vel enim labore sit id dignissimos quibusdam sed.</t>
-  </si>
-  <si>
-    <t>Intelligent Plastic Table</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>Recusandae ex nemo qui.</t>
-  </si>
-  <si>
-    <t>Generic Concrete Car</t>
+    <t>A quis quod rerum nam et voluptatem laudantium.</t>
+  </si>
+  <si>
+    <t>Fantastic Fresh Chair</t>
   </si>
   <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t>Voluptas ut et quis consectetur quaerat cumque assumenda exercitationem molestiae.</t>
-  </si>
-  <si>
-    <t>Handmade Metal Ball</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>Sed aliquam aut et mollitia eos esse sunt voluptatem.</t>
-  </si>
-  <si>
-    <t>Ergonomic Steel Mouse</t>
-  </si>
-  <si>
-    <t>Plastic</t>
-  </si>
-  <si>
-    <t>Quam dolore autem sit.</t>
-  </si>
-  <si>
-    <t>Refined Wooden Sausages</t>
-  </si>
-  <si>
-    <t>Rubber</t>
-  </si>
-  <si>
-    <t>Cumque enim ipsam unde consequatur nam sit porro veniam.</t>
-  </si>
-  <si>
-    <t>Ergonomic Soft Pants</t>
-  </si>
-  <si>
-    <t>Et ut enim ex sed inventore accusamus aliquid labore.</t>
-  </si>
-  <si>
-    <t>Refined Frozen Gloves</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Et ipsum exercitationem dicta quaerat.</t>
-  </si>
-  <si>
-    <t>Practical Cotton Sausages</t>
-  </si>
-  <si>
-    <t>Error odio aperiam quos nemo illo aut.</t>
-  </si>
-  <si>
-    <t>Licensed Concrete Chair</t>
-  </si>
-  <si>
-    <t>Itaque aut reprehenderit dolorem quis eum et perspiciatis rem quia.</t>
-  </si>
-  <si>
-    <t>Refined Soft Pants</t>
-  </si>
-  <si>
-    <t>Soft</t>
-  </si>
-  <si>
-    <t>Aut ipsum aliquid alias quam excepturi sint magni sequi repellendus.</t>
-  </si>
-  <si>
-    <t>Sleek Fresh Sausages</t>
-  </si>
-  <si>
-    <t>Frozen</t>
-  </si>
-  <si>
-    <t>Sed distinctio nisi ducimus amet libero est assumenda modi voluptas.</t>
-  </si>
-  <si>
-    <t>Handcrafted Rubber Tuna</t>
-  </si>
-  <si>
-    <t>Culpa minus facere recusandae maxime reprehenderit quas repellat commodi.</t>
-  </si>
-  <si>
-    <t>Ergonomic Granite Tuna</t>
-  </si>
-  <si>
-    <t>Rem ullam sunt omnis in.</t>
-  </si>
-  <si>
-    <t>Handcrafted Cotton Salad</t>
-  </si>
-  <si>
-    <t>Veniam veniam placeat voluptatem molestiae magni qui nostrum.</t>
+    <t>Vel provident commodi ea.</t>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -231,16 +163,16 @@
     <t>聯絡人/電話：林怡辰/02-8798-2000 #676</t>
   </si>
   <si>
-    <t>付款方式 ：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收款戶名 ： </t>
-  </si>
-  <si>
-    <t xml:space="preserve">收款行庫 ： </t>
-  </si>
-  <si>
-    <t xml:space="preserve">收款帳號 ： </t>
+    <t>付款方式 ： 匯款</t>
+  </si>
+  <si>
+    <t>收款戶名 ： Shaun Torp</t>
+  </si>
+  <si>
+    <t>收款行庫 ： Howell - Howe</t>
+  </si>
+  <si>
+    <t>收款帳號 ： 56943672</t>
   </si>
   <si>
     <t>※若上述收款帳戶資訊有異動，請另行書面通知變更。</t>
@@ -264,7 +196,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,172 +385,172 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="53">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="10" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,71 +911,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="130" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.89453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.47265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1015625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.89453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.89453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.1015625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="5" customWidth="1" style="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1" style="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1" style="1"/>
+    <col min="5" max="5" width="4.453125" customWidth="1" style="1"/>
+    <col min="6" max="6" bestFit="1" width="11.6328125" customWidth="1" style="1"/>
+    <col min="7" max="7" bestFit="1" width="23.54296875" customWidth="1" style="1"/>
+    <col min="8" max="8" width="2" customWidth="1" style="1"/>
+    <col min="9" max="9" width="13.08984375" customWidth="1" style="1"/>
+    <col min="10" max="10" width="2.90625" customWidth="1" style="1"/>
+    <col min="11" max="11" width="5.90625" customWidth="1" style="1"/>
+    <col min="12" max="12" bestFit="1" width="11.36328125" customWidth="1" style="1"/>
+    <col min="13" max="13" width="2.08984375" customWidth="1" style="1"/>
+    <col min="14" max="14" width="9" customWidth="1" style="1"/>
+    <col min="15" max="16384" width="9" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="24" t="s">
+    <row r="1" ht="16.5" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="29" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="5" ht="17.5" customHeight="1">
+      <c r="A5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
@@ -1056,25 +988,25 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="29" t="s">
+    <row r="6" ht="17.5" customHeight="1">
+      <c r="A6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1082,12 +1014,12 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="29" t="s">
+    <row r="7" ht="17.5" customHeight="1">
+      <c r="A7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1100,17 +1032,17 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="29" t="s">
+    <row r="8" ht="17.5" customHeight="1">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1118,12 +1050,12 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="29" t="s">
+    <row r="9" ht="17.5" customHeight="1">
+      <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1070,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" ht="17.5" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1152,15 +1084,15 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" ht="17.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1170,468 +1102,386 @@
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="23" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" ht="17.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="8">
-        <v>217.5354186577552</v>
+        <v>753</v>
       </c>
       <c r="G12" s="9">
-        <v>30</v>
-      </c>
-      <c r="H12" s="41">
-        <v>8351</v>
-      </c>
-      <c r="I12" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="29">
+        <v>9615</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" ht="17.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="8">
-        <v>326.86087990973499</v>
+        <v>987</v>
       </c>
       <c r="G13" s="9">
-        <v>53</v>
-      </c>
-      <c r="H13" s="43">
-        <v>3738</v>
-      </c>
-      <c r="I13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="31">
+        <v>4156</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+    </row>
+    <row r="14" ht="17.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="8">
-        <v>320.79702336484149</v>
+        <v>162</v>
       </c>
       <c r="G14" s="9">
-        <v>62</v>
-      </c>
-      <c r="H14" s="43">
-        <v>4026</v>
-      </c>
-      <c r="I14" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="31">
+        <v>3303</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" ht="17.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="8">
-        <v>816.94396872500045</v>
+        <v>612</v>
       </c>
       <c r="G15" s="9">
-        <v>83</v>
-      </c>
-      <c r="H15" s="43">
-        <v>4306</v>
-      </c>
-      <c r="I15" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="31">
+        <v>7415</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+    </row>
+    <row r="16" ht="17.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" ht="17.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="7" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="35">
+        <f>SUM(H12:H17)</f>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" ht="17.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8">
-        <v>283.40472256752702</v>
-      </c>
-      <c r="G16" s="9">
-        <v>26</v>
-      </c>
-      <c r="H16" s="43">
-        <v>2020</v>
-      </c>
-      <c r="I16" s="44" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="35">
+        <f>ROUND(H18*5%,0)</f>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="13">
-        <v>6</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="37">
+        <f>H18 + H19</f>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" ht="17.15" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" ht="17.5" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="7" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" ht="17.5" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="14">
-        <v>655.43017758714552</v>
-      </c>
-      <c r="G17" s="12">
-        <v>68</v>
-      </c>
-      <c r="H17" s="50">
-        <v>8277</v>
-      </c>
-      <c r="I17" s="51" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" ht="17.5" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" ht="17.5" customHeight="1">
+      <c r="A25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B18" s="1">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" ht="17.5" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1">
-        <v>567.50456077864214</v>
-      </c>
-      <c r="G18" s="1">
-        <v>50</v>
-      </c>
-      <c r="H18" s="1" t="str">
-        <f ca="1">SUM(H12:H27)</f>
-        <v/>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" ht="17.5" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B19" s="1">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" ht="17.5" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" ht="17.5" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1">
-        <v>440.93482354324357</v>
-      </c>
-      <c r="G19" s="1">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1">
-        <f>H28 * 0.05</f>
-        <v>1535.9</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" ht="17.5" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" ht="17.5" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B20" s="1">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1">
-        <v>731.59786049949912</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="1">
-        <f>H28 + H29</f>
-        <v>32254</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1">
-        <v>927.21691347358694</v>
-      </c>
-      <c r="G21" s="1">
-        <v>27</v>
-      </c>
-      <c r="H21" s="1">
-        <v>6773</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B22" s="1">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="1">
-        <v>139.77356224818934</v>
-      </c>
-      <c r="G22" s="1">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3848</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B23" s="1">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1">
-        <v>680.40430573340529</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1728</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B24" s="1">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1">
-        <v>925.45933060812342</v>
-      </c>
-      <c r="G24" s="1">
-        <v>69</v>
-      </c>
-      <c r="H24" s="1">
-        <v>9280</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B25" s="1">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="1">
-        <v>548.22564975840123</v>
-      </c>
-      <c r="G25" s="1">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1">
-        <v>5076</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
-      <c r="B26" s="1">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="1">
-        <v>131.617875082528</v>
-      </c>
-      <c r="G26" s="1">
-        <v>30</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1785</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="3"/>
-      <c r="B28" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="46">
-        <f>SUM(H12:I17)</f>
-        <v>30718</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-    </row>
-    <row r="29" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="3"/>
-      <c r="B29" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="46">
-        <f>ROUND(H28*0.05,0)</f>
-        <v>1536</v>
-      </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="3"/>
-      <c r="B30" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="48">
-        <f>H28+H29</f>
-        <v>32254</v>
-      </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="32" ht="17.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1640,203 +1490,20 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="18"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-    </row>
-    <row r="39" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="50" spans="8:9" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="H50" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="19"/>
+    </row>
+    <row r="33" ht="17.5" customHeight="1"/>
+    <row r="40" ht="17">
+      <c r="H40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -1853,36 +1520,61 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -49,25 +49,22 @@
     <t>付款通知單編號：</t>
   </si>
   <si>
-    <t>1c470748-0706-431d-a4ab-d17ef382f2d9</t>
+    <t>f5c662df-d9f5-4318-9013-c64058bf5138</t>
   </si>
   <si>
     <t>計費期間：</t>
   </si>
   <si>
-    <t>2024/07/01~2024/07/31</t>
-  </si>
-  <si>
-    <t>製發日期：</t>
-  </si>
-  <si>
-    <t>yyyy/MM/dd</t>
+    <t>2023/06/01~2023/06/30</t>
+  </si>
+  <si>
+    <t>製發日期：2025/10/26</t>
   </si>
   <si>
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Ledner, Purdy and Haag</t>
+    <t>Murazik - Swift</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
@@ -88,7 +85,7 @@
     <t>電話</t>
   </si>
   <si>
-    <t>付款期限：2025/05/25</t>
+    <t>付款期限：2025/12/30</t>
   </si>
   <si>
     <t>項次</t>
@@ -112,40 +109,49 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Awesome Plastic Car</t>
+    <t>Fantastic Wooden Chair</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>Praesentium quidem voluptas.</t>
+  </si>
+  <si>
+    <t>Handmade Concrete Shirt</t>
   </si>
   <si>
     <t>Plastic</t>
   </si>
   <si>
-    <t>Dolor ut dolore ullam veritatis earum fugit et doloremque est.</t>
-  </si>
-  <si>
-    <t>Practical Granite Pizza</t>
-  </si>
-  <si>
-    <t>Frozen</t>
-  </si>
-  <si>
-    <t>Delectus rerum ipsam quia.</t>
-  </si>
-  <si>
-    <t>Small Metal Pants</t>
-  </si>
-  <si>
-    <t>Fresh</t>
-  </si>
-  <si>
-    <t>A quis quod rerum nam et voluptatem laudantium.</t>
-  </si>
-  <si>
-    <t>Fantastic Fresh Chair</t>
+    <t>Excepturi et facere rem quo.</t>
+  </si>
+  <si>
+    <t>Awesome Granite Hat</t>
   </si>
   <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t>Vel provident commodi ea.</t>
+    <t>Quos ducimus totam possimus facere officiis dolorem.</t>
+  </si>
+  <si>
+    <t>Rustic Rubber Sausages</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Harum voluptatem iure ut vitae cumque et magni voluptatem.</t>
+  </si>
+  <si>
+    <t>Fantastic Rubber Fish</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Voluptas et dolores et vero consequuntur occaecati quisquam est.</t>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -166,13 +172,13 @@
     <t>付款方式 ： 匯款</t>
   </si>
   <si>
-    <t>收款戶名 ： Shaun Torp</t>
-  </si>
-  <si>
-    <t>收款行庫 ： Howell - Howe</t>
-  </si>
-  <si>
-    <t>收款帳號 ： 56943672</t>
+    <t>收款戶名 ： Gaetano Sanford</t>
+  </si>
+  <si>
+    <t>收款行庫 ： MacGyver, Cruickshank and Schmidt</t>
+  </si>
+  <si>
+    <t>收款帳號 ： 51041593</t>
   </si>
   <si>
     <t>※若上述收款帳戶資訊有異動，請另行書面通知變更。</t>
@@ -992,18 +998,16 @@
         <v>6</v>
       </c>
       <c r="K5" s="45"/>
-      <c r="L5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" ht="17.5" customHeight="1">
       <c r="A6" s="45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
@@ -1016,12 +1020,12 @@
     </row>
     <row r="7" ht="17.5" customHeight="1">
       <c r="A7" s="45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1034,12 +1038,12 @@
     </row>
     <row r="8" ht="17.5" customHeight="1">
       <c r="A8" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
@@ -1052,12 +1056,12 @@
     </row>
     <row r="9" ht="17.5" customHeight="1">
       <c r="A9" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1065,7 +1069,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
@@ -1087,27 +1091,27 @@
     <row r="11" ht="17.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>18</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="42" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>22</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
@@ -1118,25 +1122,25 @@
         <v>1</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8">
+        <v>373</v>
+      </c>
+      <c r="G12" s="9">
+        <v>73</v>
+      </c>
+      <c r="H12" s="29">
+        <v>4815</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="8">
-        <v>753</v>
-      </c>
-      <c r="G12" s="9">
-        <v>61</v>
-      </c>
-      <c r="H12" s="29">
-        <v>9615</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
     </row>
@@ -1146,25 +1150,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8">
+        <v>498</v>
+      </c>
+      <c r="G13" s="9">
+        <v>51</v>
+      </c>
+      <c r="H13" s="31">
+        <v>5637</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8">
-        <v>987</v>
-      </c>
-      <c r="G13" s="9">
-        <v>18</v>
-      </c>
-      <c r="H13" s="31">
-        <v>4156</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
@@ -1174,25 +1178,25 @@
         <v>3</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8">
+        <v>278</v>
+      </c>
+      <c r="G14" s="9">
+        <v>54</v>
+      </c>
+      <c r="H14" s="31">
+        <v>9087</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8">
-        <v>162</v>
-      </c>
-      <c r="G14" s="9">
-        <v>48</v>
-      </c>
-      <c r="H14" s="31">
-        <v>3303</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
     </row>
@@ -1202,39 +1206,53 @@
         <v>4</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="47"/>
       <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="8">
+        <v>485</v>
+      </c>
+      <c r="G15" s="9">
+        <v>83</v>
+      </c>
+      <c r="H15" s="31">
+        <v>6004</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="8">
-        <v>612</v>
-      </c>
-      <c r="G15" s="9">
-        <v>68</v>
-      </c>
-      <c r="H15" s="31">
-        <v>7415</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
     </row>
     <row r="16" ht="17.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="47"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8">
+        <v>205</v>
+      </c>
+      <c r="G16" s="9">
+        <v>64</v>
+      </c>
+      <c r="H16" s="31">
+        <v>2697</v>
+      </c>
       <c r="I16" s="32"/>
-      <c r="J16" s="34"/>
+      <c r="J16" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
@@ -1255,7 +1273,7 @@
     <row r="18" ht="17.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -1273,7 +1291,7 @@
     <row r="19" ht="17.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -1291,7 +1309,7 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1322,7 +1340,7 @@
     </row>
     <row r="22" ht="17.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1339,7 +1357,7 @@
     </row>
     <row r="23" ht="17.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1369,7 +1387,7 @@
     </row>
     <row r="25" ht="17.5" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1386,7 +1404,7 @@
     </row>
     <row r="26" ht="17.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1402,7 +1420,7 @@
     </row>
     <row r="27" ht="17.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1418,7 +1436,7 @@
     </row>
     <row r="28" ht="17.5" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1435,7 +1453,7 @@
     </row>
     <row r="29" ht="17.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1465,7 +1483,7 @@
     </row>
     <row r="31" ht="17.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1481,7 +1499,7 @@
     </row>
     <row r="32" ht="17.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1498,7 +1516,7 @@
     <row r="33" ht="17.5" customHeight="1"/>
     <row r="40" ht="17">
       <c r="H40" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I40" s="19"/>
     </row>
@@ -1518,7 +1536,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
@@ -1530,7 +1547,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="H16:I16"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="H18:I18"/>
@@ -1544,6 +1560,7 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -49,43 +49,43 @@
     <t>付款通知單編號：</t>
   </si>
   <si>
-    <t>f5c662df-d9f5-4318-9013-c64058bf5138</t>
+    <t>ceb7e51f-d7e5-47a8-9507-b20b7ff7a2a2</t>
   </si>
   <si>
     <t>計費期間：</t>
   </si>
   <si>
-    <t>2023/06/01~2023/06/30</t>
-  </si>
-  <si>
-    <t>製發日期：2025/10/26</t>
+    <t>2024/06/01~2024/06/30</t>
+  </si>
+  <si>
+    <t>製發日期：2025/09/05</t>
   </si>
   <si>
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Murazik - Swift</t>
+    <t>Dickens LLC</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
   </si>
   <si>
-    <t>統一編號</t>
+    <t>41372369</t>
   </si>
   <si>
     <t>客戶連絡地址：</t>
   </si>
   <si>
-    <t>地址</t>
+    <t>15082 Rogahn Course, Schummburgh, Philippines</t>
   </si>
   <si>
     <t>客戶連絡電話：</t>
   </si>
   <si>
-    <t>電話</t>
-  </si>
-  <si>
-    <t>付款期限：2025/12/30</t>
+    <t>719.531.7415</t>
+  </si>
+  <si>
+    <t>付款期限：2025/04/04</t>
   </si>
   <si>
     <t>項次</t>
@@ -109,49 +109,40 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Fantastic Wooden Chair</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>Praesentium quidem voluptas.</t>
-  </si>
-  <si>
-    <t>Handmade Concrete Shirt</t>
-  </si>
-  <si>
-    <t>Plastic</t>
-  </si>
-  <si>
-    <t>Excepturi et facere rem quo.</t>
-  </si>
-  <si>
-    <t>Awesome Granite Hat</t>
+    <t>Sleek Rubber Keyboard</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Omnis aliquid eum mollitia rerum veniam repudiandae sunt asperiores.</t>
+  </si>
+  <si>
+    <t>Tasty Fresh Chicken</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Delectus non repudiandae temporibus non vitae aut.</t>
+  </si>
+  <si>
+    <t>Refined Fresh Shoes</t>
   </si>
   <si>
     <t>Concrete</t>
   </si>
   <si>
-    <t>Quos ducimus totam possimus facere officiis dolorem.</t>
-  </si>
-  <si>
-    <t>Rustic Rubber Sausages</t>
-  </si>
-  <si>
-    <t>Soft</t>
-  </si>
-  <si>
-    <t>Harum voluptatem iure ut vitae cumque et magni voluptatem.</t>
-  </si>
-  <si>
-    <t>Fantastic Rubber Fish</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>Voluptas et dolores et vero consequuntur occaecati quisquam est.</t>
+    <t>Nobis nihil consequuntur in est omnis veniam dolore ducimus natus.</t>
+  </si>
+  <si>
+    <t>Handmade Frozen Pants</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Molestiae nostrum et omnis.</t>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -169,16 +160,16 @@
     <t>聯絡人/電話：林怡辰/02-8798-2000 #676</t>
   </si>
   <si>
-    <t>付款方式 ： 匯款</t>
-  </si>
-  <si>
-    <t>收款戶名 ： Gaetano Sanford</t>
-  </si>
-  <si>
-    <t>收款行庫 ： MacGyver, Cruickshank and Schmidt</t>
-  </si>
-  <si>
-    <t>收款帳號 ： 51041593</t>
+    <t>付款方式 ： invoice</t>
+  </si>
+  <si>
+    <t>收款戶名 ： Rachel Murray</t>
+  </si>
+  <si>
+    <t>收款行庫 ： Miller - Jast</t>
+  </si>
+  <si>
+    <t>收款帳號 ： 70381721</t>
   </si>
   <si>
     <t>※若上述收款帳戶資訊有異動，請另行書面通知變更。</t>
@@ -1129,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="F12" s="8">
-        <v>373</v>
+        <v>201.92170005431444</v>
       </c>
       <c r="G12" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="29">
-        <v>4815</v>
+        <v>14134</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="33" t="s">
@@ -1157,13 +1148,13 @@
         <v>27</v>
       </c>
       <c r="F13" s="8">
-        <v>498</v>
+        <v>245.53543191150365</v>
       </c>
       <c r="G13" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="H13" s="31">
-        <v>5637</v>
+        <v>18660</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="33" t="s">
@@ -1185,13 +1176,13 @@
         <v>30</v>
       </c>
       <c r="F14" s="8">
-        <v>278</v>
+        <v>262.5149881074792</v>
       </c>
       <c r="G14" s="9">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H14" s="31">
-        <v>9087</v>
+        <v>15750</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="33" t="s">
@@ -1213,13 +1204,13 @@
         <v>33</v>
       </c>
       <c r="F15" s="8">
-        <v>485</v>
+        <v>442.2110597705452</v>
       </c>
       <c r="G15" s="9">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="H15" s="31">
-        <v>6004</v>
+        <v>4864</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="33" t="s">
@@ -1230,29 +1221,15 @@
     </row>
     <row r="16" ht="17.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="7">
-        <v>5</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="8">
-        <v>205</v>
-      </c>
-      <c r="G16" s="9">
-        <v>64</v>
-      </c>
-      <c r="H16" s="31">
-        <v>2697</v>
-      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="32"/>
-      <c r="J16" s="34" t="s">
-        <v>37</v>
-      </c>
+      <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
     </row>
@@ -1273,7 +1250,7 @@
     <row r="18" ht="17.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -1291,7 +1268,7 @@
     <row r="19" ht="17.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -1309,7 +1286,7 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1340,7 +1317,7 @@
     </row>
     <row r="22" ht="17.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1357,7 +1334,7 @@
     </row>
     <row r="23" ht="17.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1387,7 +1364,7 @@
     </row>
     <row r="25" ht="17.5" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1404,7 +1381,7 @@
     </row>
     <row r="26" ht="17.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1420,7 +1397,7 @@
     </row>
     <row r="27" ht="17.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1436,7 +1413,7 @@
     </row>
     <row r="28" ht="17.5" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1453,7 +1430,7 @@
     </row>
     <row r="29" ht="17.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1483,7 +1460,7 @@
     </row>
     <row r="31" ht="17.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1499,7 +1476,7 @@
     </row>
     <row r="32" ht="17.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1516,7 +1493,7 @@
     <row r="33" ht="17.5" customHeight="1"/>
     <row r="40" ht="17">
       <c r="H40" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I40" s="19"/>
     </row>
@@ -1547,6 +1524,7 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="H18:I18"/>
@@ -1560,7 +1538,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
+++ b/ExcelTester/bin/Debug/net8.0-windows/Templates/台汽綠能_電業公司_付款通知範本1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>台汽電綠能股份有限公司</t>
   </si>
@@ -49,43 +49,43 @@
     <t>付款通知單編號：</t>
   </si>
   <si>
-    <t>ceb7e51f-d7e5-47a8-9507-b20b7ff7a2a2</t>
+    <t>MW-0001-2212</t>
   </si>
   <si>
     <t>計費期間：</t>
   </si>
   <si>
-    <t>2024/06/01~2024/06/30</t>
-  </si>
-  <si>
-    <t>製發日期：2025/09/05</t>
+    <t>2022/12/01~2022/12/31</t>
+  </si>
+  <si>
+    <t>製發日期：2025/01/21</t>
   </si>
   <si>
     <t>客戶名稱：</t>
   </si>
   <si>
-    <t>Dickens LLC</t>
+    <t>苗栗風力股份有限公司</t>
   </si>
   <si>
     <t>客戶統一編號：</t>
   </si>
   <si>
-    <t>41372369</t>
+    <t>80520735</t>
   </si>
   <si>
     <t>客戶連絡地址：</t>
   </si>
   <si>
-    <t>15082 Rogahn Course, Schummburgh, Philippines</t>
+    <t>台北市內湖區瑞光路392號6F</t>
   </si>
   <si>
     <t>客戶連絡電話：</t>
   </si>
   <si>
-    <t>719.531.7415</t>
-  </si>
-  <si>
-    <t>付款期限：2025/04/04</t>
+    <t>02-8798-2899 #610</t>
+  </si>
+  <si>
+    <t>付款期限：2023/03/06</t>
   </si>
   <si>
     <t>項次</t>
@@ -109,40 +109,13 @@
     <t>備註</t>
   </si>
   <si>
-    <t>Sleek Rubber Keyboard</t>
-  </si>
-  <si>
-    <t>Rubber</t>
-  </si>
-  <si>
-    <t>Omnis aliquid eum mollitia rerum veniam repudiandae sunt asperiores.</t>
-  </si>
-  <si>
-    <t>Tasty Fresh Chicken</t>
-  </si>
-  <si>
-    <t>Soft</t>
-  </si>
-  <si>
-    <t>Delectus non repudiandae temporibus non vitae aut.</t>
-  </si>
-  <si>
-    <t>Refined Fresh Shoes</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Nobis nihil consequuntur in est omnis veniam dolore ducimus natus.</t>
-  </si>
-  <si>
-    <t>Handmade Frozen Pants</t>
-  </si>
-  <si>
-    <t>Fresh</t>
-  </si>
-  <si>
-    <t>Molestiae nostrum et omnis.</t>
+    <t>再生能源憑證電費</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>未稅金額合計</t>
@@ -160,16 +133,16 @@
     <t>聯絡人/電話：林怡辰/02-8798-2000 #676</t>
   </si>
   <si>
-    <t>付款方式 ： invoice</t>
-  </si>
-  <si>
-    <t>收款戶名 ： Rachel Murray</t>
-  </si>
-  <si>
-    <t>收款行庫 ： Miller - Jast</t>
-  </si>
-  <si>
-    <t>收款帳號 ： 70381721</t>
+    <t>付款方式 ： 電匯</t>
+  </si>
+  <si>
+    <t>收款戶名 ： 苗栗風力股份有限公司</t>
+  </si>
+  <si>
+    <t>收款行庫 ： 兆豐國際商業銀行 板橋分行</t>
+  </si>
+  <si>
+    <t>收款帳號 ： 20609001655</t>
   </si>
   <si>
     <t>※若上述收款帳戶資訊有異動，請另行書面通知變更。</t>
@@ -1120,13 +1093,13 @@
         <v>24</v>
       </c>
       <c r="F12" s="8">
-        <v>201.92170005431444</v>
+        <v>3.175</v>
       </c>
       <c r="G12" s="9">
-        <v>70</v>
+        <v>21740992</v>
       </c>
       <c r="H12" s="29">
-        <v>14134</v>
+        <v>69027650</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="33" t="s">
@@ -1137,85 +1110,43 @@
     </row>
     <row r="13" ht="17.5" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>26</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8">
-        <v>245.53543191150365</v>
-      </c>
-      <c r="G13" s="9">
-        <v>76</v>
-      </c>
-      <c r="H13" s="31">
-        <v>18660</v>
-      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="32"/>
-      <c r="J13" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
     </row>
     <row r="14" ht="17.5" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="7">
-        <v>3</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="47"/>
-      <c r="E14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="8">
-        <v>262.5149881074792</v>
-      </c>
-      <c r="G14" s="9">
-        <v>60</v>
-      </c>
-      <c r="H14" s="31">
-        <v>15750</v>
-      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="32"/>
-      <c r="J14" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
     </row>
     <row r="15" ht="17.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="8">
-        <v>442.2110597705452</v>
-      </c>
-      <c r="G15" s="9">
-        <v>11</v>
-      </c>
-      <c r="H15" s="31">
-        <v>4864</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="32"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
+      <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
     </row>
@@ -1250,7 +1181,7 @@
     <row r="18" ht="17.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="42" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -1258,7 +1189,7 @@
       <c r="F18" s="43"/>
       <c r="G18" s="44"/>
       <c r="H18" s="35">
-        <f>SUM(H12:H17)</f>
+        <v>69027650</v>
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="41"/>
@@ -1268,7 +1199,7 @@
     <row r="19" ht="17.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="42" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -1276,7 +1207,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="44"/>
       <c r="H19" s="35">
-        <f>ROUND(H18*5%,0)</f>
+        <v>3451382</v>
       </c>
       <c r="I19" s="36"/>
       <c r="J19" s="33"/>
@@ -1286,7 +1217,7 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1294,7 +1225,7 @@
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
       <c r="H20" s="37">
-        <f>H18 + H19</f>
+        <v>72479032</v>
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="33"/>
@@ -1317,7 +1248,7 @@
     </row>
     <row r="22" ht="17.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1334,7 +1265,7 @@
     </row>
     <row r="23" ht="17.5" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1364,7 +1295,7 @@
     </row>
     <row r="25" ht="17.5" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1381,7 +1312,7 @@
     </row>
     <row r="26" ht="17.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1397,7 +1328,7 @@
     </row>
     <row r="27" ht="17.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1413,7 +1344,7 @@
     </row>
     <row r="28" ht="17.5" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1430,7 +1361,7 @@
     </row>
     <row r="29" ht="17.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1460,7 +1391,7 @@
     </row>
     <row r="31" ht="17.5" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1476,7 +1407,7 @@
     </row>
     <row r="32" ht="17.5" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1493,7 +1424,7 @@
     <row r="33" ht="17.5" customHeight="1"/>
     <row r="40" ht="17">
       <c r="H40" s="19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I40" s="19"/>
     </row>
@@ -1524,6 +1455,9 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
@@ -1535,9 +1469,6 @@
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
